--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/Dropbox/Projects - ongoing/Malawi Project/Thanzi la Onse/04 - Methods Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E630C2-3783-894F-9360-52F72B48F973}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71EA915E-5653-6247-AC32-C4930D93F067}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="15860" tabRatio="723" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="References" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1685,8 +1686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1918,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1928,7 +1929,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1939,7 +1940,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1950,7 +1951,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1961,7 +1962,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1972,7 +1973,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1983,7 +1984,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1994,7 +1995,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2005,7 +2006,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2016,7 +2017,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2027,7 +2028,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2038,7 +2039,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="44">
-        <v>0.123</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2049,7 +2050,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="44">
-        <v>0.155</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2060,7 +2061,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="44">
-        <v>0.155</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2071,7 +2072,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="44">
-        <v>0.155</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2082,7 +2083,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="44">
-        <v>0.155</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2093,7 +2094,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="44">
-        <v>0.155</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2104,7 +2105,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="44">
-        <v>0.155</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2115,7 +2116,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="44">
-        <v>0.155</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2126,7 +2127,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="44">
-        <v>0.155</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,7 +2138,7 @@
         <v>38</v>
       </c>
       <c r="C40" s="44">
-        <v>0.155</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2148,7 +2149,7 @@
         <v>39</v>
       </c>
       <c r="C41" s="44">
-        <v>0.155</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2159,7 +2160,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="44">
-        <v>0.23499999999999999</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2170,7 +2171,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="44">
-        <v>0.23499999999999999</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2181,7 +2182,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="44">
-        <v>0.23499999999999999</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2192,7 +2193,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="44">
-        <v>0.23499999999999999</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2203,7 +2204,7 @@
         <v>44</v>
       </c>
       <c r="C46" s="44">
-        <v>0.23499999999999999</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2214,7 +2215,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="44">
-        <v>0.23499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2225,7 +2226,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="44">
-        <v>0.23499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2236,7 +2237,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="44">
-        <v>0.23499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2247,7 +2248,7 @@
         <v>48</v>
       </c>
       <c r="C50" s="44">
-        <v>0.23499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2258,7 +2259,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="44">
-        <v>0.23499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2269,7 +2270,7 @@
         <v>50</v>
       </c>
       <c r="C52" s="44">
-        <v>0.42499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2280,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="C53" s="44">
-        <v>0.42499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2291,7 +2292,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="44">
-        <v>0.42499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2302,7 +2303,7 @@
         <v>53</v>
       </c>
       <c r="C55" s="44">
-        <v>0.42499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2313,7 +2314,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="44">
-        <v>0.42499999999999999</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2324,7 +2325,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="44">
-        <v>0.42499999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2335,7 +2336,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="44">
-        <v>0.42499999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2346,7 +2347,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="44">
-        <v>0.42499999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2357,7 +2358,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="44">
-        <v>0.42499999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2368,7 +2369,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="44">
-        <v>0.42499999999999999</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2379,7 +2380,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2390,7 +2391,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2401,7 +2402,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2412,7 +2413,7 @@
         <v>63</v>
       </c>
       <c r="C65" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2423,7 +2424,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2434,7 +2435,7 @@
         <v>65</v>
       </c>
       <c r="C67" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2445,7 +2446,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2456,7 +2457,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2467,7 +2468,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2478,7 +2479,7 @@
         <v>69</v>
       </c>
       <c r="C71" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2489,7 +2490,7 @@
         <v>70</v>
       </c>
       <c r="C72" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2500,7 +2501,7 @@
         <v>71</v>
       </c>
       <c r="C73" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2511,7 +2512,7 @@
         <v>72</v>
       </c>
       <c r="C74" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2522,7 +2523,7 @@
         <v>73</v>
       </c>
       <c r="C75" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2533,7 +2534,7 @@
         <v>74</v>
       </c>
       <c r="C76" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2544,7 +2545,7 @@
         <v>75</v>
       </c>
       <c r="C77" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,7 +2556,7 @@
         <v>76</v>
       </c>
       <c r="C78" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2566,7 +2567,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,7 +2578,7 @@
         <v>78</v>
       </c>
       <c r="C80" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2588,7 +2589,7 @@
         <v>79</v>
       </c>
       <c r="C81" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2599,7 +2600,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="44">
-        <v>0.54200000000000004</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2611,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2838,8 +2839,8 @@
         <v>18</v>
       </c>
       <c r="C20" s="44">
-        <f>prevalence2018!C20/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C20/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2850,8 +2851,8 @@
         <v>19</v>
       </c>
       <c r="C21" s="44">
-        <f>prevalence2018!C21/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C21/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2862,8 +2863,8 @@
         <v>20</v>
       </c>
       <c r="C22" s="44">
-        <f>prevalence2018!C22/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C22/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2874,8 +2875,8 @@
         <v>21</v>
       </c>
       <c r="C23" s="44">
-        <f>prevalence2018!C23/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C23/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2886,8 +2887,8 @@
         <v>22</v>
       </c>
       <c r="C24" s="44">
-        <f>prevalence2018!C24/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C24/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,8 +2899,8 @@
         <v>23</v>
       </c>
       <c r="C25" s="44">
-        <f>prevalence2018!C25/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C25/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2910,8 +2911,8 @@
         <v>24</v>
       </c>
       <c r="C26" s="44">
-        <f>prevalence2018!C26/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C26/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2922,8 +2923,8 @@
         <v>25</v>
       </c>
       <c r="C27" s="44">
-        <f>prevalence2018!C27/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C27/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2934,8 +2935,8 @@
         <v>26</v>
       </c>
       <c r="C28" s="44">
-        <f>prevalence2018!C28/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C28/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2946,8 +2947,8 @@
         <v>27</v>
       </c>
       <c r="C29" s="44">
-        <f>prevalence2018!C29/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C29/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2958,8 +2959,8 @@
         <v>28</v>
       </c>
       <c r="C30" s="44">
-        <f>prevalence2018!C30/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C30/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,8 +2971,8 @@
         <v>29</v>
       </c>
       <c r="C31" s="44">
-        <f>prevalence2018!C31/100</f>
-        <v>1.23E-3</v>
+        <f>prevalence2018!C31/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2982,8 +2983,8 @@
         <v>30</v>
       </c>
       <c r="C32" s="44">
-        <f>prevalence2018!C32/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C32/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2994,8 +2995,8 @@
         <v>31</v>
       </c>
       <c r="C33" s="44">
-        <f>prevalence2018!C33/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C33/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3006,8 +3007,8 @@
         <v>32</v>
       </c>
       <c r="C34" s="44">
-        <f>prevalence2018!C34/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C34/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3018,8 +3019,8 @@
         <v>33</v>
       </c>
       <c r="C35" s="44">
-        <f>prevalence2018!C35/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C35/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,8 +3031,8 @@
         <v>34</v>
       </c>
       <c r="C36" s="44">
-        <f>prevalence2018!C36/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C36/10</f>
+        <v>4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3042,8 +3043,8 @@
         <v>35</v>
       </c>
       <c r="C37" s="44">
-        <f>prevalence2018!C37/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C37/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3054,8 +3055,8 @@
         <v>36</v>
       </c>
       <c r="C38" s="44">
-        <f>prevalence2018!C38/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C38/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,8 +3067,8 @@
         <v>37</v>
       </c>
       <c r="C39" s="44">
-        <f>prevalence2018!C39/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C39/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3078,8 +3079,8 @@
         <v>38</v>
       </c>
       <c r="C40" s="44">
-        <f>prevalence2018!C40/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C40/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3090,8 +3091,8 @@
         <v>39</v>
       </c>
       <c r="C41" s="44">
-        <f>prevalence2018!C41/100</f>
-        <v>1.5499999999999999E-3</v>
+        <f>prevalence2018!C41/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3102,8 +3103,8 @@
         <v>40</v>
       </c>
       <c r="C42" s="44">
-        <f>prevalence2018!C42/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C42/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3114,8 +3115,8 @@
         <v>41</v>
       </c>
       <c r="C43" s="44">
-        <f>prevalence2018!C43/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C43/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3126,8 +3127,8 @@
         <v>42</v>
       </c>
       <c r="C44" s="44">
-        <f>prevalence2018!C44/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C44/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3138,8 +3139,8 @@
         <v>43</v>
       </c>
       <c r="C45" s="44">
-        <f>prevalence2018!C45/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C45/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3150,8 +3151,8 @@
         <v>44</v>
       </c>
       <c r="C46" s="44">
-        <f>prevalence2018!C46/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C46/10</f>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3162,8 +3163,8 @@
         <v>45</v>
       </c>
       <c r="C47" s="44">
-        <f>prevalence2018!C47/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C47/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3174,8 +3175,8 @@
         <v>46</v>
       </c>
       <c r="C48" s="44">
-        <f>prevalence2018!C48/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C48/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3186,8 +3187,8 @@
         <v>47</v>
       </c>
       <c r="C49" s="44">
-        <f>prevalence2018!C49/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C49/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3198,8 +3199,8 @@
         <v>48</v>
       </c>
       <c r="C50" s="44">
-        <f>prevalence2018!C50/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C50/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3210,8 +3211,8 @@
         <v>49</v>
       </c>
       <c r="C51" s="44">
-        <f>prevalence2018!C51/100</f>
-        <v>2.3499999999999997E-3</v>
+        <f>prevalence2018!C51/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3222,8 +3223,8 @@
         <v>50</v>
       </c>
       <c r="C52" s="44">
-        <f>prevalence2018!C52/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C52/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3234,8 +3235,8 @@
         <v>51</v>
       </c>
       <c r="C53" s="44">
-        <f>prevalence2018!C53/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C53/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3246,8 +3247,8 @@
         <v>52</v>
       </c>
       <c r="C54" s="44">
-        <f>prevalence2018!C54/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C54/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3258,8 +3259,8 @@
         <v>53</v>
       </c>
       <c r="C55" s="44">
-        <f>prevalence2018!C55/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C55/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3270,8 +3271,8 @@
         <v>54</v>
       </c>
       <c r="C56" s="44">
-        <f>prevalence2018!C56/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C56/10</f>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3282,8 +3283,8 @@
         <v>55</v>
       </c>
       <c r="C57" s="44">
-        <f>prevalence2018!C57/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C57/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3294,8 +3295,8 @@
         <v>56</v>
       </c>
       <c r="C58" s="44">
-        <f>prevalence2018!C58/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C58/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3306,8 +3307,8 @@
         <v>57</v>
       </c>
       <c r="C59" s="44">
-        <f>prevalence2018!C59/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C59/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3318,8 +3319,8 @@
         <v>58</v>
       </c>
       <c r="C60" s="44">
-        <f>prevalence2018!C60/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C60/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,8 +3331,8 @@
         <v>59</v>
       </c>
       <c r="C61" s="44">
-        <f>prevalence2018!C61/100</f>
-        <v>4.2500000000000003E-3</v>
+        <f>prevalence2018!C61/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3342,8 +3343,8 @@
         <v>60</v>
       </c>
       <c r="C62" s="44">
-        <f>prevalence2018!C62/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C62/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3354,8 +3355,8 @@
         <v>61</v>
       </c>
       <c r="C63" s="44">
-        <f>prevalence2018!C63/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C63/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,8 +3367,8 @@
         <v>62</v>
       </c>
       <c r="C64" s="44">
-        <f>prevalence2018!C64/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C64/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3378,8 +3379,8 @@
         <v>63</v>
       </c>
       <c r="C65" s="44">
-        <f>prevalence2018!C65/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C65/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3390,8 +3391,8 @@
         <v>64</v>
       </c>
       <c r="C66" s="44">
-        <f>prevalence2018!C66/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C66/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3402,8 +3403,8 @@
         <v>65</v>
       </c>
       <c r="C67" s="44">
-        <f>prevalence2018!C67/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C67/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3414,8 +3415,8 @@
         <v>66</v>
       </c>
       <c r="C68" s="44">
-        <f>prevalence2018!C68/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C68/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3426,8 +3427,8 @@
         <v>67</v>
       </c>
       <c r="C69" s="44">
-        <f>prevalence2018!C69/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C69/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3438,8 +3439,8 @@
         <v>68</v>
       </c>
       <c r="C70" s="44">
-        <f>prevalence2018!C70/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C70/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3450,8 +3451,8 @@
         <v>69</v>
       </c>
       <c r="C71" s="44">
-        <f>prevalence2018!C71/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C71/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3462,8 +3463,8 @@
         <v>70</v>
       </c>
       <c r="C72" s="44">
-        <f>prevalence2018!C72/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C72/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3474,8 +3475,8 @@
         <v>71</v>
       </c>
       <c r="C73" s="44">
-        <f>prevalence2018!C73/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C73/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3486,8 +3487,8 @@
         <v>72</v>
       </c>
       <c r="C74" s="44">
-        <f>prevalence2018!C74/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C74/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3498,8 +3499,8 @@
         <v>73</v>
       </c>
       <c r="C75" s="44">
-        <f>prevalence2018!C75/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C75/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3510,8 +3511,8 @@
         <v>74</v>
       </c>
       <c r="C76" s="44">
-        <f>prevalence2018!C76/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C76/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3522,8 +3523,8 @@
         <v>75</v>
       </c>
       <c r="C77" s="44">
-        <f>prevalence2018!C77/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C77/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3534,8 +3535,8 @@
         <v>76</v>
       </c>
       <c r="C78" s="44">
-        <f>prevalence2018!C78/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C78/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3546,8 +3547,8 @@
         <v>77</v>
       </c>
       <c r="C79" s="44">
-        <f>prevalence2018!C79/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C79/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3558,8 +3559,8 @@
         <v>78</v>
       </c>
       <c r="C80" s="44">
-        <f>prevalence2018!C80/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C80/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3570,8 +3571,8 @@
         <v>79</v>
       </c>
       <c r="C81" s="44">
-        <f>prevalence2018!C81/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C81/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3582,8 +3583,8 @@
         <v>80</v>
       </c>
       <c r="C82" s="44">
-        <f>prevalence2018!C82/100</f>
-        <v>5.4200000000000003E-3</v>
+        <f>prevalence2018!C82/10</f>
+        <v>6.8000000000000005E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD66BD-C60D-C14A-9E33-3479AADC1850}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3709,7 +3710,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D5" sqref="D5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/Dropbox/Projects - ongoing/Malawi Project/Thanzi la Onse/04 - Methods Repository/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71EA915E-5653-6247-AC32-C4930D93F067}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB3226-07F6-1B41-B9E1-CF8118A2DA0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="15860" tabRatio="723" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="References" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1686,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F24"/>
+    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1918,7 +1919,8 @@
         <v>18</v>
       </c>
       <c r="C20" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f>0.049*0.92</f>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1929,7 +1931,8 @@
         <v>19</v>
       </c>
       <c r="C21" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" ref="C21:C36" si="0">0.049*0.92</f>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1940,7 +1943,8 @@
         <v>20</v>
       </c>
       <c r="C22" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1951,7 +1955,8 @@
         <v>21</v>
       </c>
       <c r="C23" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1962,7 +1967,8 @@
         <v>22</v>
       </c>
       <c r="C24" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1973,7 +1979,8 @@
         <v>23</v>
       </c>
       <c r="C25" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -1984,7 +1991,8 @@
         <v>24</v>
       </c>
       <c r="C26" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -1995,7 +2003,8 @@
         <v>25</v>
       </c>
       <c r="C27" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2006,7 +2015,8 @@
         <v>26</v>
       </c>
       <c r="C28" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2017,7 +2027,8 @@
         <v>27</v>
       </c>
       <c r="C29" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2028,7 +2039,8 @@
         <v>28</v>
       </c>
       <c r="C30" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2039,7 +2051,8 @@
         <v>29</v>
       </c>
       <c r="C31" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2050,7 +2063,8 @@
         <v>30</v>
       </c>
       <c r="C32" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2061,7 +2075,8 @@
         <v>31</v>
       </c>
       <c r="C33" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2072,7 +2087,8 @@
         <v>32</v>
       </c>
       <c r="C34" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2083,7 +2099,8 @@
         <v>33</v>
       </c>
       <c r="C35" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2094,7 +2111,8 @@
         <v>34</v>
       </c>
       <c r="C36" s="44">
-        <v>4.9000000000000002E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.5080000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2105,7 +2123,8 @@
         <v>35</v>
       </c>
       <c r="C37" s="44">
-        <v>6.2E-2</v>
+        <f>0.062*0.94</f>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2116,7 +2135,8 @@
         <v>36</v>
       </c>
       <c r="C38" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" ref="C38:C46" si="1">0.062*0.94</f>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2127,7 +2147,8 @@
         <v>37</v>
       </c>
       <c r="C39" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2138,7 +2159,8 @@
         <v>38</v>
       </c>
       <c r="C40" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2149,7 +2171,8 @@
         <v>39</v>
       </c>
       <c r="C41" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2160,7 +2183,8 @@
         <v>40</v>
       </c>
       <c r="C42" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2171,7 +2195,8 @@
         <v>41</v>
       </c>
       <c r="C43" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2182,7 +2207,8 @@
         <v>42</v>
       </c>
       <c r="C44" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2193,7 +2219,8 @@
         <v>43</v>
       </c>
       <c r="C45" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2204,7 +2231,8 @@
         <v>44</v>
       </c>
       <c r="C46" s="44">
-        <v>6.2E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.8279999999999998E-2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,7 +2243,8 @@
         <v>45</v>
       </c>
       <c r="C47" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f>0.056*0.87</f>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2226,7 +2255,8 @@
         <v>46</v>
       </c>
       <c r="C48" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" ref="C48:C56" si="2">0.056*0.87</f>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2237,7 +2267,8 @@
         <v>47</v>
       </c>
       <c r="C49" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,7 +2279,8 @@
         <v>48</v>
       </c>
       <c r="C50" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2259,7 +2291,8 @@
         <v>49</v>
       </c>
       <c r="C51" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2270,7 +2303,8 @@
         <v>50</v>
       </c>
       <c r="C52" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2281,7 +2315,8 @@
         <v>51</v>
       </c>
       <c r="C53" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2292,7 +2327,8 @@
         <v>52</v>
       </c>
       <c r="C54" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2303,7 +2339,8 @@
         <v>53</v>
       </c>
       <c r="C55" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2314,7 +2351,8 @@
         <v>54</v>
       </c>
       <c r="C56" s="44">
-        <v>5.6000000000000001E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.8719999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2325,7 +2363,8 @@
         <v>55</v>
       </c>
       <c r="C57" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f>0.068*0.89</f>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2336,7 +2375,8 @@
         <v>56</v>
       </c>
       <c r="C58" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" ref="C58:C82" si="3">0.068*0.89</f>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2347,7 +2387,8 @@
         <v>57</v>
       </c>
       <c r="C59" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2358,7 +2399,8 @@
         <v>58</v>
       </c>
       <c r="C60" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2369,7 +2411,8 @@
         <v>59</v>
       </c>
       <c r="C61" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2380,7 +2423,8 @@
         <v>60</v>
       </c>
       <c r="C62" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2391,7 +2435,8 @@
         <v>61</v>
       </c>
       <c r="C63" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2402,7 +2447,8 @@
         <v>62</v>
       </c>
       <c r="C64" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2413,7 +2459,8 @@
         <v>63</v>
       </c>
       <c r="C65" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2424,7 +2471,8 @@
         <v>64</v>
       </c>
       <c r="C66" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2435,7 +2483,8 @@
         <v>65</v>
       </c>
       <c r="C67" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2446,7 +2495,8 @@
         <v>66</v>
       </c>
       <c r="C68" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2457,7 +2507,8 @@
         <v>67</v>
       </c>
       <c r="C69" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2468,7 +2519,8 @@
         <v>68</v>
       </c>
       <c r="C70" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2479,7 +2531,8 @@
         <v>69</v>
       </c>
       <c r="C71" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2490,7 +2543,8 @@
         <v>70</v>
       </c>
       <c r="C72" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2501,7 +2555,8 @@
         <v>71</v>
       </c>
       <c r="C73" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2512,7 +2567,8 @@
         <v>72</v>
       </c>
       <c r="C74" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2523,7 +2579,8 @@
         <v>73</v>
       </c>
       <c r="C75" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2534,7 +2591,8 @@
         <v>74</v>
       </c>
       <c r="C76" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2545,7 +2603,8 @@
         <v>75</v>
       </c>
       <c r="C77" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,7 +2615,8 @@
         <v>76</v>
       </c>
       <c r="C78" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2567,7 +2627,8 @@
         <v>77</v>
       </c>
       <c r="C79" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2578,7 +2639,8 @@
         <v>78</v>
       </c>
       <c r="C80" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2589,7 +2651,8 @@
         <v>79</v>
       </c>
       <c r="C81" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2600,7 +2663,8 @@
         <v>80</v>
       </c>
       <c r="C82" s="44">
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.0520000000000004E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2612,8 +2676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2840,7 +2904,7 @@
       </c>
       <c r="C20" s="44">
         <f>prevalence2018!C20/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2852,7 +2916,7 @@
       </c>
       <c r="C21" s="44">
         <f>prevalence2018!C21/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2864,7 +2928,7 @@
       </c>
       <c r="C22" s="44">
         <f>prevalence2018!C22/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,7 +2940,7 @@
       </c>
       <c r="C23" s="44">
         <f>prevalence2018!C23/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2888,7 +2952,7 @@
       </c>
       <c r="C24" s="44">
         <f>prevalence2018!C24/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2900,7 +2964,7 @@
       </c>
       <c r="C25" s="44">
         <f>prevalence2018!C25/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2912,7 +2976,7 @@
       </c>
       <c r="C26" s="44">
         <f>prevalence2018!C26/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2924,7 +2988,7 @@
       </c>
       <c r="C27" s="44">
         <f>prevalence2018!C27/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2936,7 +3000,7 @@
       </c>
       <c r="C28" s="44">
         <f>prevalence2018!C28/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2948,7 +3012,7 @@
       </c>
       <c r="C29" s="44">
         <f>prevalence2018!C29/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2960,7 +3024,7 @@
       </c>
       <c r="C30" s="44">
         <f>prevalence2018!C30/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2972,7 +3036,7 @@
       </c>
       <c r="C31" s="44">
         <f>prevalence2018!C31/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2984,7 +3048,7 @@
       </c>
       <c r="C32" s="44">
         <f>prevalence2018!C32/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2996,7 +3060,7 @@
       </c>
       <c r="C33" s="44">
         <f>prevalence2018!C33/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,7 +3072,7 @@
       </c>
       <c r="C34" s="44">
         <f>prevalence2018!C34/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -3020,7 +3084,7 @@
       </c>
       <c r="C35" s="44">
         <f>prevalence2018!C35/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -3032,7 +3096,7 @@
       </c>
       <c r="C36" s="44">
         <f>prevalence2018!C36/10</f>
-        <v>4.8999999999999998E-3</v>
+        <v>4.5079999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -3043,8 +3107,8 @@
         <v>35</v>
       </c>
       <c r="C37" s="44">
-        <f>prevalence2018!C37/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C37/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -3055,8 +3119,8 @@
         <v>36</v>
       </c>
       <c r="C38" s="44">
-        <f>prevalence2018!C38/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C38/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -3067,8 +3131,8 @@
         <v>37</v>
       </c>
       <c r="C39" s="44">
-        <f>prevalence2018!C39/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C39/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -3079,8 +3143,8 @@
         <v>38</v>
       </c>
       <c r="C40" s="44">
-        <f>prevalence2018!C40/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C40/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -3091,8 +3155,8 @@
         <v>39</v>
       </c>
       <c r="C41" s="44">
-        <f>prevalence2018!C41/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C41/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -3103,8 +3167,8 @@
         <v>40</v>
       </c>
       <c r="C42" s="44">
-        <f>prevalence2018!C42/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C42/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -3115,8 +3179,8 @@
         <v>41</v>
       </c>
       <c r="C43" s="44">
-        <f>prevalence2018!C43/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C43/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -3127,8 +3191,8 @@
         <v>42</v>
       </c>
       <c r="C44" s="44">
-        <f>prevalence2018!C44/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C44/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -3139,8 +3203,8 @@
         <v>43</v>
       </c>
       <c r="C45" s="44">
-        <f>prevalence2018!C45/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C45/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -3151,8 +3215,8 @@
         <v>44</v>
       </c>
       <c r="C46" s="44">
-        <f>prevalence2018!C46/10</f>
-        <v>6.1999999999999998E-3</v>
+        <f>prevalence2018!C46/11</f>
+        <v>5.2981818181818182E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -3163,8 +3227,8 @@
         <v>45</v>
       </c>
       <c r="C47" s="44">
-        <f>prevalence2018!C47/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C47/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -3175,8 +3239,8 @@
         <v>46</v>
       </c>
       <c r="C48" s="44">
-        <f>prevalence2018!C48/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C48/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -3187,8 +3251,8 @@
         <v>47</v>
       </c>
       <c r="C49" s="44">
-        <f>prevalence2018!C49/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C49/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -3199,8 +3263,8 @@
         <v>48</v>
       </c>
       <c r="C50" s="44">
-        <f>prevalence2018!C50/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C50/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -3211,8 +3275,8 @@
         <v>49</v>
       </c>
       <c r="C51" s="44">
-        <f>prevalence2018!C51/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C51/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3223,8 +3287,8 @@
         <v>50</v>
       </c>
       <c r="C52" s="44">
-        <f>prevalence2018!C52/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C52/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -3235,8 +3299,8 @@
         <v>51</v>
       </c>
       <c r="C53" s="44">
-        <f>prevalence2018!C53/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C53/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -3247,8 +3311,8 @@
         <v>52</v>
       </c>
       <c r="C54" s="44">
-        <f>prevalence2018!C54/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C54/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -3259,8 +3323,8 @@
         <v>53</v>
       </c>
       <c r="C55" s="44">
-        <f>prevalence2018!C55/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C55/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -3271,8 +3335,8 @@
         <v>54</v>
       </c>
       <c r="C56" s="44">
-        <f>prevalence2018!C56/10</f>
-        <v>5.5999999999999999E-3</v>
+        <f>prevalence2018!C56/120</f>
+        <v>4.06E-4</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3283,8 +3347,8 @@
         <v>55</v>
       </c>
       <c r="C57" s="44">
-        <f>prevalence2018!C57/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C57/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3295,8 +3359,8 @@
         <v>56</v>
       </c>
       <c r="C58" s="44">
-        <f>prevalence2018!C58/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C58/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3307,8 +3371,8 @@
         <v>57</v>
       </c>
       <c r="C59" s="44">
-        <f>prevalence2018!C59/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C59/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3319,8 +3383,8 @@
         <v>58</v>
       </c>
       <c r="C60" s="44">
-        <f>prevalence2018!C60/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C60/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3331,8 +3395,8 @@
         <v>59</v>
       </c>
       <c r="C61" s="44">
-        <f>prevalence2018!C61/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C61/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3343,8 +3407,8 @@
         <v>60</v>
       </c>
       <c r="C62" s="44">
-        <f>prevalence2018!C62/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C62/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3355,8 +3419,8 @@
         <v>61</v>
       </c>
       <c r="C63" s="44">
-        <f>prevalence2018!C63/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C63/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3367,8 +3431,8 @@
         <v>62</v>
       </c>
       <c r="C64" s="44">
-        <f>prevalence2018!C64/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C64/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3379,8 +3443,8 @@
         <v>63</v>
       </c>
       <c r="C65" s="44">
-        <f>prevalence2018!C65/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C65/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3391,8 +3455,8 @@
         <v>64</v>
       </c>
       <c r="C66" s="44">
-        <f>prevalence2018!C66/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C66/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3403,8 +3467,8 @@
         <v>65</v>
       </c>
       <c r="C67" s="44">
-        <f>prevalence2018!C67/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C67/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3415,8 +3479,8 @@
         <v>66</v>
       </c>
       <c r="C68" s="44">
-        <f>prevalence2018!C68/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C68/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3427,8 +3491,8 @@
         <v>67</v>
       </c>
       <c r="C69" s="44">
-        <f>prevalence2018!C69/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C69/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3439,8 +3503,8 @@
         <v>68</v>
       </c>
       <c r="C70" s="44">
-        <f>prevalence2018!C70/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C70/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3451,8 +3515,8 @@
         <v>69</v>
       </c>
       <c r="C71" s="44">
-        <f>prevalence2018!C71/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C71/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3463,8 +3527,8 @@
         <v>70</v>
       </c>
       <c r="C72" s="44">
-        <f>prevalence2018!C72/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C72/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3475,8 +3539,8 @@
         <v>71</v>
       </c>
       <c r="C73" s="44">
-        <f>prevalence2018!C73/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C73/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3487,8 +3551,8 @@
         <v>72</v>
       </c>
       <c r="C74" s="44">
-        <f>prevalence2018!C74/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C74/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3499,8 +3563,8 @@
         <v>73</v>
       </c>
       <c r="C75" s="44">
-        <f>prevalence2018!C75/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C75/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3511,8 +3575,8 @@
         <v>74</v>
       </c>
       <c r="C76" s="44">
-        <f>prevalence2018!C76/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C76/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3523,8 +3587,8 @@
         <v>75</v>
       </c>
       <c r="C77" s="44">
-        <f>prevalence2018!C77/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C77/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3535,8 +3599,8 @@
         <v>76</v>
       </c>
       <c r="C78" s="44">
-        <f>prevalence2018!C78/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C78/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3547,8 +3611,8 @@
         <v>77</v>
       </c>
       <c r="C79" s="44">
-        <f>prevalence2018!C79/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C79/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3559,8 +3623,8 @@
         <v>78</v>
       </c>
       <c r="C80" s="44">
-        <f>prevalence2018!C80/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C80/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3571,8 +3635,8 @@
         <v>79</v>
       </c>
       <c r="C81" s="44">
-        <f>prevalence2018!C81/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C81/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3583,8 +3647,8 @@
         <v>80</v>
       </c>
       <c r="C82" s="44">
-        <f>prevalence2018!C82/10</f>
-        <v>6.8000000000000005E-3</v>
+        <f>prevalence2018!C82/200</f>
+        <v>3.0260000000000004E-4</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/Dropbox/Projects - ongoing/Malawi Project/Thanzi la Onse/04 - Methods Repository/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/PycharmProjects/TLOmodel/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CB3226-07F6-1B41-B9E1-CF8118A2DA0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60801664-D657-F847-8E56-2A5112C0B7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
   <si>
     <t>Name:</t>
   </si>
@@ -269,21 +269,6 @@
   </si>
   <si>
     <t>Prevalence/incidence to also depend on lifestyle factors and pre-existing conditions</t>
-  </si>
-  <si>
-    <t>prob_retinopathy</t>
-  </si>
-  <si>
-    <t>prob_nephropathy</t>
-  </si>
-  <si>
-    <t>prob_meuropathy</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>prob_basic</t>
   </si>
   <si>
     <t>value</t>
@@ -501,7 +486,25 @@
     <t>prob_d2givenbmi</t>
   </si>
   <si>
-    <t>prob_d2givenfamhis</t>
+    <t>parameter_name</t>
+  </si>
+  <si>
+    <t>prob_d2_basic</t>
+  </si>
+  <si>
+    <t>prob_d2givengd</t>
+  </si>
+  <si>
+    <t>prob_retinocomp</t>
+  </si>
+  <si>
+    <t>prob_nephrocomp</t>
+  </si>
+  <si>
+    <t>prob_death</t>
+  </si>
+  <si>
+    <t>prob_neurocomp</t>
   </si>
 </sst>
 </file>
@@ -1687,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2363,8 +2366,8 @@
         <v>55</v>
       </c>
       <c r="C57" s="44">
-        <f>0.068*0.89</f>
-        <v>6.0520000000000004E-2</v>
+        <f>0.068*1.8</f>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2375,8 +2378,8 @@
         <v>56</v>
       </c>
       <c r="C58" s="44">
-        <f t="shared" ref="C58:C82" si="3">0.068*0.89</f>
-        <v>6.0520000000000004E-2</v>
+        <f t="shared" ref="C58:C82" si="3">0.068*1.8</f>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,7 +2391,7 @@
       </c>
       <c r="C59" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2400,7 +2403,7 @@
       </c>
       <c r="C60" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2412,7 +2415,7 @@
       </c>
       <c r="C61" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2424,7 +2427,7 @@
       </c>
       <c r="C62" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2436,7 +2439,7 @@
       </c>
       <c r="C63" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2448,7 +2451,7 @@
       </c>
       <c r="C64" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2460,7 +2463,7 @@
       </c>
       <c r="C65" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2475,7 @@
       </c>
       <c r="C66" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2484,7 +2487,7 @@
       </c>
       <c r="C67" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2496,7 +2499,7 @@
       </c>
       <c r="C68" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2508,7 +2511,7 @@
       </c>
       <c r="C69" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,7 +2523,7 @@
       </c>
       <c r="C70" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2532,7 +2535,7 @@
       </c>
       <c r="C71" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2544,7 +2547,7 @@
       </c>
       <c r="C72" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2556,7 +2559,7 @@
       </c>
       <c r="C73" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2568,7 +2571,7 @@
       </c>
       <c r="C74" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2580,7 +2583,7 @@
       </c>
       <c r="C75" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2592,7 +2595,7 @@
       </c>
       <c r="C76" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2604,7 +2607,7 @@
       </c>
       <c r="C77" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2616,7 +2619,7 @@
       </c>
       <c r="C78" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2628,7 +2631,7 @@
       </c>
       <c r="C79" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,7 +2643,7 @@
       </c>
       <c r="C80" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -2652,7 +2655,7 @@
       </c>
       <c r="C81" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -2664,7 +2667,7 @@
       </c>
       <c r="C82" s="44">
         <f t="shared" si="3"/>
-        <v>6.0520000000000004E-2</v>
+        <v>0.12240000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2676,7 +2679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
@@ -3348,7 +3351,7 @@
       </c>
       <c r="C57" s="44">
         <f>prevalence2018!C57/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -3360,7 +3363,7 @@
       </c>
       <c r="C58" s="44">
         <f>prevalence2018!C58/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3372,7 +3375,7 @@
       </c>
       <c r="C59" s="44">
         <f>prevalence2018!C59/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3384,7 +3387,7 @@
       </c>
       <c r="C60" s="44">
         <f>prevalence2018!C60/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -3396,7 +3399,7 @@
       </c>
       <c r="C61" s="44">
         <f>prevalence2018!C61/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -3408,7 +3411,7 @@
       </c>
       <c r="C62" s="44">
         <f>prevalence2018!C62/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -3420,7 +3423,7 @@
       </c>
       <c r="C63" s="44">
         <f>prevalence2018!C63/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -3432,7 +3435,7 @@
       </c>
       <c r="C64" s="44">
         <f>prevalence2018!C64/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -3444,7 +3447,7 @@
       </c>
       <c r="C65" s="44">
         <f>prevalence2018!C65/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -3456,7 +3459,7 @@
       </c>
       <c r="C66" s="44">
         <f>prevalence2018!C66/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -3468,7 +3471,7 @@
       </c>
       <c r="C67" s="44">
         <f>prevalence2018!C67/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -3480,7 +3483,7 @@
       </c>
       <c r="C68" s="44">
         <f>prevalence2018!C68/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -3492,7 +3495,7 @@
       </c>
       <c r="C69" s="44">
         <f>prevalence2018!C69/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -3504,7 +3507,7 @@
       </c>
       <c r="C70" s="44">
         <f>prevalence2018!C70/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -3516,7 +3519,7 @@
       </c>
       <c r="C71" s="44">
         <f>prevalence2018!C71/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -3528,7 +3531,7 @@
       </c>
       <c r="C72" s="44">
         <f>prevalence2018!C72/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -3540,7 +3543,7 @@
       </c>
       <c r="C73" s="44">
         <f>prevalence2018!C73/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -3552,7 +3555,7 @@
       </c>
       <c r="C74" s="44">
         <f>prevalence2018!C74/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -3564,7 +3567,7 @@
       </c>
       <c r="C75" s="44">
         <f>prevalence2018!C75/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -3576,7 +3579,7 @@
       </c>
       <c r="C76" s="44">
         <f>prevalence2018!C76/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -3588,7 +3591,7 @@
       </c>
       <c r="C77" s="44">
         <f>prevalence2018!C77/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -3600,7 +3603,7 @@
       </c>
       <c r="C78" s="44">
         <f>prevalence2018!C78/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -3612,7 +3615,7 @@
       </c>
       <c r="C79" s="44">
         <f>prevalence2018!C79/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -3624,7 +3627,7 @@
       </c>
       <c r="C80" s="44">
         <f>prevalence2018!C80/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -3636,7 +3639,7 @@
       </c>
       <c r="C81" s="44">
         <f>prevalence2018!C81/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -3648,7 +3651,7 @@
       </c>
       <c r="C82" s="44">
         <f>prevalence2018!C82/200</f>
-        <v>3.0260000000000004E-4</v>
+        <v>6.1200000000000002E-4</v>
       </c>
     </row>
   </sheetData>
@@ -3658,10 +3661,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD66BD-C60D-C14A-9E33-3479AADC1850}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3672,21 +3675,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="B2" s="44">
         <v>1</v>
@@ -3700,7 +3703,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B3" s="44">
         <v>1.49</v>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B4" s="44">
         <v>1.58</v>
@@ -3728,7 +3731,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="44">
         <v>1.57</v>
@@ -3742,7 +3745,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="B6" s="44">
         <v>0.35599999999999998</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="B7" s="44">
         <v>0.33100000000000002</v>
@@ -3758,10 +3761,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="43" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="B8" s="44">
         <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="44">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -3781,27 +3792,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -3821,7 +3832,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -3841,7 +3852,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -3861,7 +3872,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -3881,7 +3892,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -3901,7 +3912,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -3921,7 +3932,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -3941,7 +3952,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -3961,7 +3972,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -3981,7 +3992,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -4001,7 +4012,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>55</v>
@@ -4021,7 +4032,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -4041,7 +4052,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B14">
         <v>35</v>
@@ -4061,7 +4072,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15">
         <v>45</v>
@@ -4081,7 +4092,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B16">
         <v>55</v>
@@ -4120,17 +4131,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>17</v>
@@ -4138,79 +4149,79 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/PycharmProjects/TLOmodel/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60801664-D657-F847-8E56-2A5112C0B7BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D8BD7-93C2-3846-8D58-AD22213E5002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
   <si>
     <t>Name:</t>
   </si>
@@ -505,6 +505,57 @@
   </si>
   <si>
     <t>prob_neurocomp</t>
+  </si>
+  <si>
+    <t>p_stroke</t>
+  </si>
+  <si>
+    <t>p_nephro_1</t>
+  </si>
+  <si>
+    <t>p_nephro_2</t>
+  </si>
+  <si>
+    <t>p_nephro_3</t>
+  </si>
+  <si>
+    <t>p_neuro_1</t>
+  </si>
+  <si>
+    <t>p_neuro_2</t>
+  </si>
+  <si>
+    <t>p_neuro_3</t>
+  </si>
+  <si>
+    <t>p_retino_1</t>
+  </si>
+  <si>
+    <t>p_retino_2</t>
+  </si>
+  <si>
+    <t>prob_nephro_1</t>
+  </si>
+  <si>
+    <t>prob_nephro_2</t>
+  </si>
+  <si>
+    <t>prob_nephro_3</t>
+  </si>
+  <si>
+    <t>prob_neuro_1</t>
+  </si>
+  <si>
+    <t>prob_neuro_2</t>
+  </si>
+  <si>
+    <t>prob_neuro_3</t>
+  </si>
+  <si>
+    <t>prob_retino_1</t>
+  </si>
+  <si>
+    <t>prob_retino_2</t>
   </si>
 </sst>
 </file>
@@ -767,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -857,6 +908,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1690,7 +1743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C57" sqref="C57:C82"/>
     </sheetView>
   </sheetViews>
@@ -3661,29 +3714,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD66BD-C60D-C14A-9E33-3479AADC1850}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="44"/>
+    <col min="2" max="4" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="52" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3691,13 +3744,13 @@
       <c r="A2" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="52">
         <v>1</v>
       </c>
-      <c r="C2" s="44">
+      <c r="C2" s="52">
         <v>1</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="52">
         <v>1</v>
       </c>
     </row>
@@ -3705,13 +3758,13 @@
       <c r="A3" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="44">
+      <c r="B3" s="52">
         <v>1.49</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="52">
         <v>1.26</v>
       </c>
-      <c r="D3" s="44">
+      <c r="D3" s="52">
         <v>1.77</v>
       </c>
     </row>
@@ -3719,13 +3772,13 @@
       <c r="A4" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="44">
+      <c r="B4" s="52">
         <v>1.58</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="52">
         <v>1.56</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="52">
         <v>1.59</v>
       </c>
     </row>
@@ -3733,13 +3786,13 @@
       <c r="A5" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="44">
+      <c r="B5" s="52">
         <v>1.57</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="52">
         <v>1.39</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="52">
         <v>1.8</v>
       </c>
     </row>
@@ -3747,7 +3800,7 @@
       <c r="A6" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="52">
         <v>0.35599999999999998</v>
       </c>
     </row>
@@ -3755,7 +3808,7 @@
       <c r="A7" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="52">
         <v>0.33100000000000002</v>
       </c>
     </row>
@@ -3763,7 +3816,7 @@
       <c r="A8" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="52">
         <v>0.32300000000000001</v>
       </c>
     </row>
@@ -3771,8 +3824,83 @@
       <c r="A9" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="52">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="52">
+        <f>0.366+B11</f>
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="52">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="52">
+        <f>0.347+B13+B14</f>
+        <v>0.47809944751381217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="52">
+        <f>0.109+B14</f>
+        <v>0.12004972375690608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="52">
+        <f>2/181</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="52">
+        <f>0.464+B16+B17</f>
+        <v>0.56400000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="52">
+        <f>0.06+B17</f>
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="52">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3782,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1478562-9F3F-AD46-9C84-EECEDF46D70E}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F8"/>
+      <selection activeCell="A18" sqref="A18:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4108,6 +4236,134 @@
       </c>
       <c r="F16">
         <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>90</v>
+      </c>
+      <c r="D17">
+        <f>35/478</f>
+        <v>7.3221757322175729E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>90</v>
+      </c>
+      <c r="D18">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>90</v>
+      </c>
+      <c r="D20">
+        <f>2/181</f>
+        <v>1.1049723756906077E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>90</v>
+      </c>
+      <c r="D21">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>90</v>
+      </c>
+      <c r="D24">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>7.3999999999999996E-2</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/PycharmProjects/TLOmodel/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10D8BD7-93C2-3846-8D58-AD22213E5002}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC5066-6580-754A-82CF-D1B87DF3CBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
   <si>
     <t>Name:</t>
   </si>
@@ -495,18 +495,9 @@
     <t>prob_d2givengd</t>
   </si>
   <si>
-    <t>prob_retinocomp</t>
-  </si>
-  <si>
-    <t>prob_nephrocomp</t>
-  </si>
-  <si>
     <t>prob_death</t>
   </si>
   <si>
-    <t>prob_neurocomp</t>
-  </si>
-  <si>
     <t>p_stroke</t>
   </si>
   <si>
@@ -516,53 +507,62 @@
     <t>p_nephro_2</t>
   </si>
   <si>
-    <t>p_nephro_3</t>
-  </si>
-  <si>
     <t>p_neuro_1</t>
   </si>
   <si>
     <t>p_neuro_2</t>
   </si>
   <si>
-    <t>p_neuro_3</t>
-  </si>
-  <si>
     <t>p_retino_1</t>
   </si>
   <si>
     <t>p_retino_2</t>
   </si>
   <si>
-    <t>prob_nephro_1</t>
-  </si>
-  <si>
-    <t>prob_nephro_2</t>
-  </si>
-  <si>
-    <t>prob_nephro_3</t>
-  </si>
-  <si>
-    <t>prob_neuro_1</t>
-  </si>
-  <si>
-    <t>prob_neuro_2</t>
-  </si>
-  <si>
-    <t>prob_neuro_3</t>
-  </si>
-  <si>
-    <t>prob_retino_1</t>
-  </si>
-  <si>
-    <t>prob_retino_2</t>
+    <t>prev_retino_1</t>
+  </si>
+  <si>
+    <t>prev_retino_2</t>
+  </si>
+  <si>
+    <t>prev_nephro_1</t>
+  </si>
+  <si>
+    <t>prev_nephro_2</t>
+  </si>
+  <si>
+    <t>prev_neuro_1</t>
+  </si>
+  <si>
+    <t>prev_neuro_2</t>
+  </si>
+  <si>
+    <t>prob_neurocomp_1</t>
+  </si>
+  <si>
+    <t>prob_neurocomp_2</t>
+  </si>
+  <si>
+    <t>prob_nephrocomp_1</t>
+  </si>
+  <si>
+    <t>prob_nephrocomp_2</t>
+  </si>
+  <si>
+    <t>prob_retinocomp_1</t>
+  </si>
+  <si>
+    <t>prob_retinocomp_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -667,6 +667,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -818,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -910,6 +917,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3714,19 +3724,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD66BD-C60D-C14A-9E33-3479AADC1850}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="43" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="10.83203125" style="52"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
         <v>117</v>
       </c>
@@ -3740,7 +3751,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
         <v>118</v>
       </c>
@@ -3754,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>116</v>
       </c>
@@ -3768,7 +3779,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>115</v>
       </c>
@@ -3782,7 +3793,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>119</v>
       </c>
@@ -3796,112 +3807,138 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="52">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="52">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="54">
+        <v>5.9799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="54">
+        <v>3.9199999999999999E-3</v>
+      </c>
+      <c r="C9" s="52">
+        <v>7.8030435827659839E-4</v>
+      </c>
+      <c r="D9" s="52">
+        <v>7.0648977221217189E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="54">
+        <f>AVERAGE(C10:D10)</f>
+        <v>7.4499999999999997E-2</v>
+      </c>
+      <c r="C10" s="52">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D10" s="52">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="54">
+        <f>AVERAGE(C11:D11)</f>
+        <v>7.85E-2</v>
+      </c>
+      <c r="C11" s="52">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D11" s="52">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="52">
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" s="52">
-        <v>0.33100000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="52">
-        <v>0.32300000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="52">
+      <c r="B12" s="52">
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="52">
-        <f>0.366+B11</f>
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="52">
-        <v>7.3999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="51" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="52">
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="52">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="52">
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="52">
-        <f>0.347+B13+B14</f>
-        <v>0.47809944751381217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="B13" s="52">
-        <f>0.109+B14</f>
-        <v>0.12004972375690608</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="52">
-        <f>2/181</f>
-        <v>1.1049723756906077E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="52">
-        <f>0.464+B16+B17</f>
-        <v>0.56400000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
-        <v>137</v>
-      </c>
       <c r="B16" s="52">
-        <f>0.06+B17</f>
-        <v>0.08</v>
-      </c>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F16" s="53"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B17" s="52">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+        <v>0.35599999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="52">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G42" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3910,10 +3947,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1478562-9F3F-AD46-9C84-EECEDF46D70E}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:D25"/>
+      <selection activeCell="A18" sqref="A18:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4240,7 +4277,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -4255,7 +4292,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -4269,7 +4306,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4278,12 +4315,12 @@
         <v>90</v>
       </c>
       <c r="D19">
-        <v>0.109</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -4292,13 +4329,12 @@
         <v>90</v>
       </c>
       <c r="D20">
-        <f>2/181</f>
-        <v>1.1049723756906077E-2</v>
+        <v>0.32200000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -4307,12 +4343,12 @@
         <v>90</v>
       </c>
       <c r="D21">
-        <v>0.46400000000000002</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -4321,12 +4357,12 @@
         <v>90</v>
       </c>
       <c r="D22">
-        <v>0.06</v>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -4335,35 +4371,7 @@
         <v>90</v>
       </c>
       <c r="D23">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24">
-        <v>18</v>
-      </c>
-      <c r="C24">
-        <v>90</v>
-      </c>
-      <c r="D24">
-        <v>0.36599999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>90</v>
-      </c>
-      <c r="D25">
-        <v>7.3999999999999996E-2</v>
+        <v>0.245</v>
       </c>
     </row>
   </sheetData>

--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/PycharmProjects/TLOmodel/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AC5066-6580-754A-82CF-D1B87DF3CBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D8A0A-6594-D143-925D-EBBA2935772C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26720" tabRatio="723" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34140" yWindow="460" windowWidth="17060" windowHeight="26720" tabRatio="723" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -3727,7 +3727,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/ResourceFile_Method_T2DM.xlsx
+++ b/resources/ResourceFile_Method_T2DM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc1405/PycharmProjects/TLOmodel/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{023D8A0A-6594-D143-925D-EBBA2935772C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87CEEFA-97B0-2D44-AFBE-0022E632A5F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="460" windowWidth="17060" windowHeight="26720" tabRatio="723" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="723" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="141">
   <si>
     <t>Name:</t>
   </si>
@@ -122,12 +122,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>not currently but later: li_overwt; li_tob</t>
-  </si>
-  <si>
-    <t>sex, dateofbirth</t>
-  </si>
-  <si>
     <t>Lifestyle Elements requiered:</t>
   </si>
   <si>
@@ -164,13 +158,6 @@
     <t>see 'parameters'</t>
   </si>
   <si>
-    <t xml:space="preserve">
-diabetes_current_status (Diabetes module)</t>
-  </si>
-  <si>
-    <t>diabetes</t>
-  </si>
-  <si>
     <t>community-based screening, screen high risk (primary care), diabetes treatment &amp; interventions (community to referral hospital)</t>
   </si>
   <si>
@@ -189,30 +176,13 @@
     <t>probability</t>
   </si>
   <si>
-    <t>Cardiovascular disease, Hypertension, High cholesterol</t>
-  </si>
-  <si>
-    <t>Handle multiple risks</t>
-  </si>
-  <si>
     <t>Diagnosed</t>
   </si>
   <si>
-    <t>diab_risk (risk ratio)
-diab_current_status (yes; no)
-diab_historic_status (N=never; C=current; P=previous)
-diab_date_case (date of latest case)
-diab_treatment_status (N=never; C=current; P=previous)
-diab_date_treatment (date of latest treatment)</t>
-  </si>
-  <si>
     <t>Diagnosed with diabetes</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Incorpporate deaths</t>
   </si>
   <si>
     <t>Details of health service to be developed, including treatment (un)success; diagnosis and recovery)</t>
@@ -266,9 +236,6 @@
   </si>
   <si>
     <t>If treatment is stopped, person is assumed to have diabetes, unless sucessful lifestyle intervention</t>
-  </si>
-  <si>
-    <t>Prevalence/incidence to also depend on lifestyle factors and pre-existing conditions</t>
   </si>
   <si>
     <t>value</t>
@@ -554,13 +521,63 @@
   <si>
     <t>prob_retinocomp_2</t>
   </si>
+  <si>
+    <t>d2_age_range (age range for t2dm validation)
+d2_risk (risk ratio)
+d2_current_status (yes; no)
+d2_historic_status (N=never; C=current; P=previous)
+d2_date (date of t2dm)
+d2_nephro_date (date of latest nephropathy)
+d2_nephro_status (0=no, 1=mild, 2=severe)
+d2_neuro_date (date of latest neuropathy)
+d2_neuro_status (0=no, 1=mild, 2=severe)
+d2_retino_date (date of latest retinopathy)
+d2_retino_status (0=no, 1=mild, 2=severe)
+d2_death_date (date of death)
+d2_diag_date (date of latest diagnosis)
+d2_diag_status (yes; no)
+d2_treat_date (date of latest treatment)
+d2_treat_status (yes; no)
+d2_contr_date (date of latest control)
+d2_contr_status (yes; no)
+d2_specific_symptoms 
+d2_unified_symptoms_code</t>
+  </si>
+  <si>
+    <t>Cardiovascular disease, Hypertension,</t>
+  </si>
+  <si>
+    <t>li_bmi</t>
+  </si>
+  <si>
+    <t>sex, dateofbirth, mother_id, gestational_diabetes, hypertension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ht_current_status (Hypertension module), gd_current_status (Gestational diabetes module)</t>
+  </si>
+  <si>
+    <t>hypertension, gestational diabetes</t>
+  </si>
+  <si>
+    <t>In code change overweight to bmi</t>
+  </si>
+  <si>
+    <t>In code activate hypertension once circular definition has been addressed</t>
+  </si>
+  <si>
+    <t>In code add gestational diabetes as risk factor once method is developed</t>
+  </si>
+  <si>
+    <t>In code add mortality due to complicaitons</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -919,7 +936,7 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,29 +960,31 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>785091</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1535545</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1884218</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>23091</xdr:rowOff>
+      <xdr:rowOff>207162</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3036C6AC-6D7D-6C40-972B-8F1BCE8F2F4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6A3DEB-4AEC-4843-9165-2FCF8F7ECD72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -978,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7770090" cy="3971636"/>
+          <a:off x="785091" y="0"/>
+          <a:ext cx="10058400" cy="4155707"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1290,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1306,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -1317,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
@@ -1350,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -1361,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H12" s="24"/>
     </row>
@@ -1369,60 +1388,60 @@
       <c r="C13" s="19"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="2:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="340" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="D14" s="28"/>
       <c r="H14" s="25"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="H15" s="25"/>
     </row>
     <row r="16" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="31"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="8"/>
     </row>
@@ -1431,28 +1450,28 @@
         <v>24</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="33"/>
     </row>
@@ -1517,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B24:G45"/>
+  <dimension ref="B24:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,10 +1587,10 @@
     </row>
     <row r="28" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="40" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D28" s="39" t="s">
         <v>26</v>
@@ -1586,10 +1605,10 @@
     </row>
     <row r="29" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="40" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C29" s="39" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D29" s="39" t="s">
         <v>26</v>
@@ -1598,16 +1617,16 @@
         <v>25</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="41"/>
@@ -1616,10 +1635,10 @@
     </row>
     <row r="31" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="40" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C31" s="39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="41"/>
@@ -1628,10 +1647,10 @@
     </row>
     <row r="32" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C32" s="39" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="41"/>
@@ -1640,10 +1659,10 @@
     </row>
     <row r="33" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C33" s="45" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D33" s="45" t="s">
         <v>26</v>
@@ -1658,19 +1677,19 @@
     </row>
     <row r="34" spans="2:7" ht="34" x14ac:dyDescent="0.2">
       <c r="B34" s="40" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C34" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D34" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F34" s="41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G34" s="22"/>
     </row>
@@ -1684,7 +1703,7 @@
     </row>
     <row r="36" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -1694,12 +1713,12 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
@@ -1708,7 +1727,7 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="36" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
@@ -1717,7 +1736,7 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="36" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="C43" s="36"/>
       <c r="D43" s="36"/>
@@ -1726,7 +1745,7 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="36" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C44" s="36"/>
       <c r="D44" s="36"/>
@@ -1735,12 +1754,21 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
+        <v>48</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="38"/>
       <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1771,7 +1799,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2760,7 +2788,7 @@
         <v>19</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3726,7 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FFD66BD-C60D-C14A-9E33-3479AADC1850}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3739,21 +3767,21 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="43" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="43" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B2" s="52">
         <v>1</v>
@@ -3767,7 +3795,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B3" s="52">
         <v>1.49</v>
@@ -3781,7 +3809,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B4" s="52">
         <v>1.58</v>
@@ -3795,7 +3823,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B5" s="52">
         <v>1.57</v>
@@ -3809,7 +3837,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B6" s="52">
         <v>6.8000000000000005E-2</v>
@@ -3817,7 +3845,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B7" s="52">
         <v>3.9600000000000003E-2</v>
@@ -3825,7 +3853,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B8" s="54">
         <v>5.9799999999999999E-2</v>
@@ -3833,7 +3861,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="51" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B9" s="54">
         <v>3.9199999999999999E-3</v>
@@ -3847,7 +3875,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="51" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B10" s="54">
         <f>AVERAGE(C10:D10)</f>
@@ -3862,7 +3890,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B11" s="54">
         <f>AVERAGE(C11:D11)</f>
@@ -3877,7 +3905,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="43" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B12" s="52">
         <v>0.01</v>
@@ -3885,7 +3913,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="51" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B13" s="52">
         <v>0.34699999999999998</v>
@@ -3893,7 +3921,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B14" s="52">
         <v>0.185</v>
@@ -3901,7 +3929,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B15" s="52">
         <v>0.32500000000000001</v>
@@ -3909,7 +3937,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B16" s="52">
         <v>4.4999999999999998E-2</v>
@@ -3918,7 +3946,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B17" s="52">
         <v>0.35599999999999998</v>
@@ -3926,7 +3954,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B18" s="52">
         <v>0.245</v>
@@ -3934,7 +3962,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.2">
@@ -3957,27 +3985,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>25</v>
@@ -3997,7 +4025,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>25</v>
@@ -4017,7 +4045,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -4037,7 +4065,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B5">
         <v>25</v>
@@ -4057,7 +4085,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>35</v>
@@ -4077,7 +4105,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B7">
         <v>45</v>
@@ -4097,7 +4125,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B8">
         <v>55</v>
@@ -4117,7 +4145,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B9">
         <v>25</v>
@@ -4137,7 +4165,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -4157,7 +4185,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>45</v>
@@ -4177,7 +4205,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B12">
         <v>55</v>
@@ -4197,7 +4225,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -4217,7 +4245,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B14">
         <v>35</v>
@@ -4237,7 +4265,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B15">
         <v>45</v>
@@ -4257,7 +4285,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B16">
         <v>55</v>
@@ -4277,7 +4305,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <v>50</v>
@@ -4292,7 +4320,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -4306,7 +4334,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -4320,7 +4348,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -4334,7 +4362,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -4348,7 +4376,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B22">
         <v>18</v>
@@ -4362,7 +4390,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B23">
         <v>18</v>
@@ -4395,17 +4423,17 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>17</v>
@@ -4413,79 +4441,79 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="47" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="47" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="47" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="47" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
